--- a/Backend/Graphs/Metrics.xlsx
+++ b/Backend/Graphs/Metrics.xlsx
@@ -8,33 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgechen/Documents/Lab - Russell/Project_7 - Adjustments/Backend/Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29518C3B-F822-4F4D-BF78-FF77C2DEA63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494CF989-E1CC-824D-AFC3-4345E3CA9E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{945E513F-C394-E74E-9BF9-3A819BE471AC}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="11320" windowHeight="18400" xr2:uid="{945E513F-C394-E74E-9BF9-3A819BE471AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$25:$B$30</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$25:$C$30</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$25:$D$30</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$25:$E$30</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$24</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$25:$F$30</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$C$24</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$C$25:$C$30</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$D$24</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$D$25:$D$30</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$E$24</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$E$25:$E$30</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$F$24</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$F$25:$F$30</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$B$25:$B$30</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Metric</t>
   </si>
@@ -88,22 +68,16 @@
     <t>RRT Use</t>
   </si>
   <si>
-    <t xml:space="preserve">Original COVID Dataset </t>
-  </si>
-  <si>
-    <t>Unseen COVID Dataset</t>
-  </si>
-  <si>
-    <t>CAP Dataset</t>
-  </si>
-  <si>
-    <t>RRT</t>
-  </si>
-  <si>
     <t>CAP Dataset 1</t>
   </si>
   <si>
     <t>Cap Dataset 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derivation COVID Dataset </t>
+  </si>
+  <si>
+    <t>Validation COVID Dataset</t>
   </si>
 </sst>
 </file>
@@ -113,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +136,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -186,11 +166,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -199,7 +179,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -207,51 +187,22 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -263,11 +214,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -283,20 +265,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -307,53 +291,72 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,7 +403,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -410,14 +413,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1">
+              <a:rPr lang="en-US" sz="1200" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>RRT Use</a:t>
+              <a:t>Vasopressor Use</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -453,21 +456,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$4</c:f>
+              <c:f>Sheet1!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Original COVID Dataset </c:v>
+                  <c:v>Derivation COVID Dataset </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkHorz">
+            <a:pattFill prst="pct25">
               <a:fgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="990201"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -481,7 +482,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$5:$U$10</c:f>
+              <c:f>Sheet1!$B$5:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -507,34 +508,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$5:$V$10</c:f>
+              <c:f>Sheet1!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.89583333333333337</c:v>
+                  <c:v>0.91631799163179917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.91803278688524592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.967741935483871</c:v>
+                  <c:v>0.9145299145299145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9285714285714286</c:v>
+                  <c:v>0.91803278688524592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.9145299145299145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95967741935483863</c:v>
+                  <c:v>0.96763345943673806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8876-FA46-9E13-6CA4B18C1B30}"/>
+              <c16:uniqueId val="{00000005-3ACB-B14A-9B6A-39BC98C56F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -543,21 +544,19 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$4</c:f>
+              <c:f>Sheet1!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unseen COVID Dataset</c:v>
+                  <c:v>Validation COVID Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct90">
+            <a:pattFill prst="pct30">
               <a:fgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="990201"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -571,7 +570,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$5:$U$10</c:f>
+              <c:f>Sheet1!$B$5:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -597,34 +596,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$5:$W$10</c:f>
+              <c:f>Sheet1!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.84848500000000004</c:v>
+                  <c:v>0.85771543086172342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77272700000000005</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92424200000000001</c:v>
+                  <c:v>0.86445012787723785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91071400000000002</c:v>
+                  <c:v>0.62937062937062938</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80263200000000001</c:v>
+                  <c:v>0.949438202247191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92860399999999998</c:v>
+                  <c:v>0.9186381074168799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8876-FA46-9E13-6CA4B18C1B30}"/>
+              <c16:uniqueId val="{00000007-3ACB-B14A-9B6A-39BC98C56F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -633,21 +632,24 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$4</c:f>
+              <c:f>Sheet1!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CAP Dataset</c:v>
+                  <c:v>CAP Dataset 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="pct40">
+              <a:fgClr>
+                <a:srgbClr val="990201"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +658,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$5:$U$10</c:f>
+              <c:f>Sheet1!$B$5:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -682,34 +684,113 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$5:$X$10</c:f>
+              <c:f>Sheet1!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.84615399999999996</c:v>
+                  <c:v>0.80762100000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69230800000000003</c:v>
+                  <c:v>0.73584899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.81546399999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.30350199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.764706</c:v>
+                  <c:v>0.965812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91420100000000004</c:v>
+                  <c:v>0.85955599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-8876-FA46-9E13-6CA4B18C1B30}"/>
+              <c16:uniqueId val="{00000009-3ACB-B14A-9B6A-39BC98C56F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cap Dataset 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="990201"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$5:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PPV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NPV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AUC ROC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.8289269051321928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70491803278688525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84192439862542956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31851851851851848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96456692913385822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87285223367697595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3ACB-B14A-9B6A-39BC98C56F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -752,7 +833,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -786,7 +867,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -796,7 +877,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1300" b="1">
+                  <a:rPr lang="en-US" sz="1050" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -806,7 +887,7 @@
                   <a:t>Metric</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1300" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -815,7 +896,7 @@
                   </a:rPr>
                   <a:t> Value</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1300" b="1">
+                <a:endParaRPr lang="en-US" sz="1050" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -860,7 +941,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -891,10 +972,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.79192025274065025"/>
-          <c:y val="5.2835022416456316E-2"/>
-          <c:w val="0.16376013467938214"/>
-          <c:h val="0.10701843491810675"/>
+          <c:x val="0.71866338596870727"/>
+          <c:y val="2.8314369099621595E-2"/>
+          <c:w val="0.23701708847069006"/>
+          <c:h val="0.14555087299466088"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -910,7 +991,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -983,8 +1064,25 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>RRT Use</a:t>
+              <a:t>Ventilator</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Use</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1019,21 +1117,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$4</c:f>
+              <c:f>Sheet1!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Original COVID Dataset </c:v>
+                  <c:v>Derivation COVID Dataset </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkHorz">
+            <a:pattFill prst="pct25">
               <a:fgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="2F5597"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -1047,7 +1143,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$5:$U$10</c:f>
+              <c:f>Sheet1!$B$15:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1073,34 +1169,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$5:$V$10</c:f>
+              <c:f>Sheet1!$C$15:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.89583333333333337</c:v>
+                  <c:v>0.88571428571428568</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.88793103448275867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.967741935483871</c:v>
+                  <c:v>0.88372093023255816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9285714285714286</c:v>
+                  <c:v>0.8728813559322034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.89763779527559051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95967741935483863</c:v>
+                  <c:v>0.9556602512697141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-579D-7044-9437-67497A3188F1}"/>
+              <c16:uniqueId val="{0000000C-D543-DC43-9791-4423F4746DA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1109,21 +1205,19 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$4</c:f>
+              <c:f>Sheet1!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unseen COVID Dataset</c:v>
+                  <c:v>Validation COVID Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct90">
+            <a:pattFill prst="pct30">
               <a:fgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="2F5597"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -1137,7 +1231,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$5:$U$10</c:f>
+              <c:f>Sheet1!$B$15:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1163,34 +1257,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$5:$W$10</c:f>
+              <c:f>Sheet1!$D$15:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.84848500000000004</c:v>
+                  <c:v>0.8587174348697395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77272700000000005</c:v>
+                  <c:v>0.82178217821782173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92424200000000001</c:v>
+                  <c:v>0.86809045226130654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91071400000000002</c:v>
+                  <c:v>0.61254612546125464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80263200000000001</c:v>
+                  <c:v>0.95048143053645118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92860399999999998</c:v>
+                  <c:v>0.92294703716602822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-579D-7044-9437-67497A3188F1}"/>
+              <c16:uniqueId val="{0000000E-D543-DC43-9791-4423F4746DA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1199,21 +1293,24 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$4</c:f>
+              <c:f>Sheet1!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CAP Dataset</c:v>
+                  <c:v>CAP Dataset 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="pct40">
+              <a:fgClr>
+                <a:srgbClr val="2F5597"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1319,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$5:$U$10</c:f>
+              <c:f>Sheet1!$B$15:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1248,34 +1345,113 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$5:$X$10</c:f>
+              <c:f>Sheet1!$E$15:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.84615399999999996</c:v>
+                  <c:v>0.83178438661710041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69230800000000003</c:v>
+                  <c:v>0.79411764705882348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.83572895277207393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.33609958506224069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.764706</c:v>
+                  <c:v>0.97485029940119761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91420100000000004</c:v>
+                  <c:v>0.89641462334420419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-579D-7044-9437-67497A3188F1}"/>
+              <c16:uniqueId val="{00000010-D543-DC43-9791-4423F4746DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cap Dataset 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2F5597"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PPV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NPV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AUC ROC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.84914463452566091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72881355932203384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86130136986301364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34677419354838712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96917148362235073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86884722544694681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-D543-DC43-9791-4423F4746DA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1549,1311 +1725,6 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Vasopressor Use</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.2802973593231355E-2"/>
-          <c:y val="0.17484459179444672"/>
-          <c:w val="0.89999716824096054"/>
-          <c:h val="0.77257167614813693"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Original COVID Dataset </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct25">
-              <a:fgClr>
-                <a:srgbClr val="990201"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$5:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PPV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NPV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AUC ROC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.91213389121338917</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93442622950819676</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89763779527559051</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96321984026902063</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3ACB-B14A-9B6A-39BC98C56F5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unseen COVID Dataset</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct30">
-              <a:fgClr>
-                <a:srgbClr val="990201"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$5:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PPV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NPV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AUC ROC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$5:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.85185185185185186</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87037037037037035</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86538461538461542</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8392857142857143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92147848079561046</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3ACB-B14A-9B6A-39BC98C56F5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CAP Dataset 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct40">
-              <a:fgClr>
-                <a:srgbClr val="990201"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$5:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PPV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NPV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AUC ROC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$5:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.79245283018867929</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72641509433962259</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85849056603773588</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83695652173913049</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86124955500177991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3ACB-B14A-9B6A-39BC98C56F5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cap Dataset 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="990201"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$5:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PPV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NPV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AUC ROC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$5:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.86324786324786329</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70833333333333337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87461773700305812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29310344827586199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97610921501706482</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.87812181447502546</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3ACB-B14A-9B6A-39BC98C56F5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="671772831"/>
-        <c:axId val="488315759"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="671772831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="488315759"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="488315759"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1050" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Metric</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> Value</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1050" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="9.362780334639019E-3"/>
-              <c:y val="0.40713804083807648"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="671772831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="tr"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.71866338596870727"/>
-          <c:y val="2.8314369099621595E-2"/>
-          <c:w val="0.23701708847069006"/>
-          <c:h val="0.14555087299466088"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ventilator</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Use</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.2802973593231355E-2"/>
-          <c:y val="0.17484459179444672"/>
-          <c:w val="0.89999716824096054"/>
-          <c:h val="0.77257167614813693"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Original COVID Dataset </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct25">
-              <a:fgClr>
-                <a:srgbClr val="2F5597"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$15:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PPV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NPV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AUC ROC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$15:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.89387755102040811</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88793103448275867</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89922480620155043</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88793103448275867</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89922480620155043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95382250735097562</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-D543-DC43-9791-4423F4746DA4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unseen COVID Dataset</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct30">
-              <a:fgClr>
-                <a:srgbClr val="2F5597"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$15:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PPV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NPV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AUC ROC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$15:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.86633663366336633</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83168316831683164</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90099009900990101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8936170212765957</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84259259259259256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93267816880697973</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-D543-DC43-9791-4423F4746DA4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CAP Dataset 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct40">
-              <a:fgClr>
-                <a:srgbClr val="2F5597"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$15:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PPV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NPV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AUC ROC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$15:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.81862745098039214</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78431372549019607</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8529411764705882</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84210526315789469</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79816513761467889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88715878508266055</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-D543-DC43-9791-4423F4746DA4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cap Dataset 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="2F5597"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$15:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PPV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NPV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AUC ROC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$15:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.86324800000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.631579</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87650600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22641500000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97650999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.85050700000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-D543-DC43-9791-4423F4746DA4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="671772831"/>
-        <c:axId val="488315759"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="671772831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="488315759"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="488315759"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1050" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Metric</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> Value</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1050" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="9.362780334639019E-3"/>
-              <c:y val="0.40713804083807648"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="671772831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="tr"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.71866338596870727"/>
-          <c:y val="2.8314369099621595E-2"/>
-          <c:w val="0.23701708847069006"/>
-          <c:h val="0.14555087299466088"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
               <a:t>RRT Use</a:t>
             </a:r>
           </a:p>
@@ -2894,7 +1765,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Original COVID Dataset </c:v>
+                  <c:v>Derivation COVID Dataset </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2952,19 +1823,19 @@
                   <c:v>0.84375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77419354838709675</c:v>
+                  <c:v>0.77419349999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>0.90909090000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0.88888889999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81081081081081086</c:v>
+                  <c:v>0.81081080000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8944281524926686</c:v>
+                  <c:v>0.89442820000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2984,7 +1855,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unseen COVID Dataset</c:v>
+                  <c:v>Validation COVID Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3039,22 +1910,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.8257575757575758</c:v>
+                  <c:v>0.85599199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77272727272727271</c:v>
+                  <c:v>0.77272700000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87878787878787878</c:v>
+                  <c:v>0.86192000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86440677966101698</c:v>
+                  <c:v>0.284916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79452054794520544</c:v>
+                  <c:v>0.981572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>0.89683199999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3129,22 +2000,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.88411200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73076923076923073</c:v>
+                  <c:v>0.730769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80769230769230771</c:v>
+                  <c:v>0.88793100000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79166666666666663</c:v>
+                  <c:v>0.139706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
+                  <c:v>0.99250499999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85207100591715978</c:v>
+                  <c:v>0.89235200000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3208,22 +2079,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89235600000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.41666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90489913544668588</c:v>
+                  <c:v>0.90143099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9411764705882349E-2</c:v>
+                  <c:v>7.4626999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99367088607594933</c:v>
+                  <c:v>0.98780500000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63400576368876072</c:v>
+                  <c:v>0.81359300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,80 +2341,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>612273</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>139032</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>344317</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>202720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>738534</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>171109</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>668326</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -3572,7 +2369,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3608,7 +2405,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3644,7 +2441,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3952,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D0F1F6-79BF-F64E-9FDB-A6F8FA919CBE}">
   <dimension ref="B1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3963,631 +2760,499 @@
     <col min="3" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:24" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:24" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="U2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:24" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="25"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="F4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="11"/>
       <c r="I4" s="3"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="V4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17">
-        <v>0.91213389121338917</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.85185185185185186</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.79245283018867929</v>
-      </c>
-      <c r="F5" s="26">
-        <v>0.86324786324786329</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0.84848500000000004</v>
-      </c>
-      <c r="X5" s="6">
-        <v>0.84615399999999996</v>
-      </c>
+      <c r="C5" s="25">
+        <v>0.91631799163179917</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.85771543086172342</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.80762100000000003</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0.8289269051321928</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="3"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="U5" s="13"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17">
-        <v>0.93442622950819676</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="25">
+        <v>0.91803278688524592</v>
+      </c>
+      <c r="D6" s="25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E6" s="17">
-        <v>0.72641509433962259</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0.77272700000000005</v>
-      </c>
-      <c r="X6" s="6">
-        <v>0.69230800000000003</v>
-      </c>
+      <c r="E6" s="26">
+        <v>0.73584899999999998</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0.70491803278688525</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="U6" s="13"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0.87037037037037035</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0.85849056603773588</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0.87461773700305812</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7">
-        <v>0.967741935483871</v>
-      </c>
-      <c r="W7" s="6">
-        <v>0.92424200000000001</v>
-      </c>
-      <c r="X7" s="6">
-        <v>1</v>
-      </c>
+      <c r="C7" s="25">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.86445012787723785</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.81546399999999997</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.84192439862542956</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="U7" s="13"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17">
-        <v>0.89763779527559051</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.86538461538461542</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.83695652173913049</v>
-      </c>
-      <c r="F8" s="26">
-        <v>0.29310344827586199</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="W8" s="6">
-        <v>0.91071400000000002</v>
-      </c>
-      <c r="X8" s="6">
-        <v>1</v>
-      </c>
+      <c r="C8" s="25">
+        <v>0.91803278688524592</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.62937062937062938</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.30350199999999999</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.31851851851851848</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="U8" s="13"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="F9" s="26">
-        <v>0.97610921501706482</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9">
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0.80263200000000001</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0.764706</v>
-      </c>
+      <c r="C9" s="25">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.949438202247191</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.965812</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.96456692913385822</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="U9" s="13"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17">
-        <v>0.96321984026902063</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.92147848079561046</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0.86124955500177991</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0.87812181447502546</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10">
-        <v>0.95967741935483863</v>
-      </c>
-      <c r="W10" s="6">
-        <v>0.92860399999999998</v>
-      </c>
-      <c r="X10" s="6">
-        <v>0.91420100000000004</v>
-      </c>
+      <c r="C10" s="25">
+        <v>0.96763345943673806</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.9186381074168799</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.85955599999999999</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.87285223367697595</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="U10" s="13"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="11"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="26"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="F14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="17">
-        <v>0.89387755102040811</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0.86633663366336633</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.81862745098039214</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0.86324800000000002</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="C15" s="25">
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.8587174348697395</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.83178438661710041</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0.84914463452566091</v>
+      </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="25">
         <v>0.88793103448275867</v>
       </c>
-      <c r="D16" s="17">
-        <v>0.83168316831683164</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.78431372549019607</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0.631579</v>
-      </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="D16" s="25">
+        <v>0.82178217821782173</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0.72881355932203384</v>
+      </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="17">
-        <v>0.89922480620155043</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.90099009900990101</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0.8529411764705882</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0.87650600000000001</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="C17" s="25">
+        <v>0.88372093023255816</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.86809045226130654</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.83572895277207393</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0.86130136986301364</v>
+      </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="17">
-        <v>0.88793103448275867</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0.8936170212765957</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0.22641500000000001</v>
+      <c r="C18" s="25">
+        <v>0.8728813559322034</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.61254612546125464</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.33609958506224069</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0.34677419354838712</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="17">
-        <v>0.89922480620155043</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.84259259259259256</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.79816513761467889</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0.97650999999999999</v>
+      <c r="C19" s="25">
+        <v>0.89763779527559051</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.95048143053645118</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.97485029940119761</v>
+      </c>
+      <c r="F19" s="27">
+        <v>0.96917148362235073</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="17">
-        <v>0.95382250735097562</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0.93267816880697973</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.88715878508266055</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0.85050700000000001</v>
+      <c r="C20" s="25">
+        <v>0.9556602512697141</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.92294703716602822</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.89641462334420419</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0.86884722544694681</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="26"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="24"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="11"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
-      <c r="C24" s="22" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="28"/>
+      <c r="C24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="F24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="36">
         <v>0.84375</v>
       </c>
-      <c r="D25" s="17">
-        <v>0.8257575757575758</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="F25">
-        <v>0.9</v>
+      <c r="D25" s="37">
+        <v>0.85599199999999998</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0.88411200000000001</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0.89235600000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="17">
-        <v>0.77419354838709675</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0.77272727272727271</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0.73076923076923073</v>
-      </c>
-      <c r="F26">
-        <v>0.33333333333333331</v>
+      <c r="C26" s="36">
+        <v>0.77419349999999998</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0.730769</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.41666700000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="17">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0.87878787878787878</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0.80769230769230771</v>
-      </c>
-      <c r="F27">
-        <v>0.90489913544668588</v>
+      <c r="C27" s="36">
+        <v>0.90909090000000004</v>
+      </c>
+      <c r="D27" s="37">
+        <v>0.86192000000000002</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0.88793100000000003</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0.90143099999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="17">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0.86440677966101698</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F28">
-        <v>2.9411764705882349E-2</v>
+      <c r="C28" s="36">
+        <v>0.88888889999999998</v>
+      </c>
+      <c r="D28" s="37">
+        <v>0.284916</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0.139706</v>
+      </c>
+      <c r="F28" s="38">
+        <v>7.4626999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="17">
-        <v>0.81081081081081086</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0.79452054794520544</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="F29">
-        <v>0.99367088607594933</v>
+      <c r="C29" s="36">
+        <v>0.81081080000000005</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0.981572</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0.99250499999999997</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0.98780500000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="28">
-        <v>0.8944281524926686</v>
-      </c>
-      <c r="D30" s="28">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="E30" s="28">
-        <v>0.85207100591715978</v>
-      </c>
-      <c r="F30">
-        <v>0.63400576368876072</v>
+      <c r="C30" s="39">
+        <v>0.89442820000000001</v>
+      </c>
+      <c r="D30" s="40">
+        <v>0.89683199999999996</v>
+      </c>
+      <c r="E30" s="40">
+        <v>0.89235200000000003</v>
+      </c>
+      <c r="F30" s="41">
+        <v>0.81359300000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
